--- a/backend/ladder_ly/example_input/example_ladders.xlsx
+++ b/backend/ladder_ly/example_input/example_ladders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbode/dxp/backend/import_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janbode/ladder.ly/import_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D8EEBA-17CC-1144-874B-779B6007F664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9FBA99-60B1-E548-BA7D-BEC2AAF220B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36500" yWindow="1620" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -470,7 +470,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>22</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>22</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>22</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>22</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>22</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>23</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>23</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>23</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>23</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>23</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>23</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -2885,7 +2885,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>23</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
